--- a/Fantasy-Premier-League-master/data/2018-19/teams_1819.csv.xlsx
+++ b/Fantasy-Premier-League-master/data/2018-19/teams_1819.csv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4388ebfc73a0393/Desktop/AI_Prac/Fantasy-Premier-League-master/data/2018-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{27865477-5AF0-44CE-B99B-0D9414503EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{364C73E7-E1E3-4793-B9AB-127FE06154C8}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{27865477-5AF0-44CE-B99B-0D9414503EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65D44DB7-479D-44DF-A0FA-D6D4EAB3923A}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2790" windowWidth="16875" windowHeight="10523" xr2:uid="{B03D4F51-7584-4764-95CE-5BFAEFE49D3F}"/>
+    <workbookView xWindow="3690" yWindow="3877" windowWidth="16875" windowHeight="10523" xr2:uid="{B03D4F51-7584-4764-95CE-5BFAEFE49D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">TeamName </t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>ManUtd</t>
-  </si>
-  <si>
-    <t>Lei</t>
   </si>
   <si>
     <t>Man United</t>
@@ -459,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE4756-EF64-4A3A-81F6-A9BD5AC83899}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -484,9 +478,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -495,9 +486,6 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -506,7 +494,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -514,7 +502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -522,7 +510,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -530,7 +518,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -538,7 +526,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -546,7 +534,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -554,7 +542,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -562,7 +550,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -570,7 +558,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -578,7 +566,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -586,7 +574,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -594,7 +582,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -602,60 +590,50 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E30">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
